--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,16 +37,31 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,21 +85,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -105,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,39 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -173,7 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,40 +148,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -278,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -521,17 +458,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F13"/>
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -539,367 +476,301 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43337</v>
+        <v>43442</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1772</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>1863</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>871</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>922</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4">
-        <v>43442</v>
+        <v>43595</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1863</v>
+        <v>2050</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>91</v>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>187</v>
       </c>
       <c r="E4" s="3">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>409.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>854.59</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM(F4,F5)</f>
+        <v>1160.51</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1160.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>922</v>
+        <v>1050</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>119.85000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305.92</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="4">
-        <v>43595</v>
+        <v>43644</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>2050</v>
+        <v>2240</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="E6" s="18">
+        <v>190</v>
+      </c>
+      <c r="E6" s="3">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>854.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>868.30000000000007</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>1179</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1050</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="E7" s="18">
+        <v>130</v>
+      </c>
+      <c r="E7" s="3">
         <v>2.39</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>305.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43644</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>310.7</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9">
+        <v>43678</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>2240</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="E8" s="18">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>868.30000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1180</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>310.7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43678</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="C8" s="10">
         <v>2360</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E8" s="10">
         <v>4.49</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F8" s="11">
+        <f>D8*E8</f>
+        <v>538.80000000000007</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>684.60000000000014</v>
+      </c>
+      <c r="H8" s="6">
+        <v>684.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1240</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="11">
+        <f>D9*E9</f>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9">
+        <v>43717</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2480</v>
+      </c>
+      <c r="D10" s="10">
+        <f>C10-C8</f>
+        <v>120</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="11">
         <f>D10*E10</f>
         <v>538.80000000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="G10" s="6">
+        <f>SUM(F10,F11)</f>
+        <v>708.90000000000009</v>
+      </c>
+      <c r="H10" s="6">
+        <v>708.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="20">
-        <v>1240</v>
-      </c>
-      <c r="D11" s="20">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="C11" s="10">
+        <v>1310</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11-C9</f>
+        <v>70</v>
+      </c>
+      <c r="E11" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="11">
         <f>D11*E11</f>
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>43717</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="20">
-        <v>2480</v>
-      </c>
-      <c r="D12" s="20">
-        <f>C12-C10</f>
-        <v>120</v>
-      </c>
-      <c r="E12" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="22">
-        <f>D12*E12</f>
-        <v>538.80000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1310</v>
-      </c>
-      <c r="D13" s="20">
-        <f>C13-C11</f>
-        <v>70</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="22">
-        <f>D13*E13</f>
         <v>170.10000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(G2:G11)</f>
+        <v>3733.0100000000007</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H2:H11)</f>
+        <v>3733.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -909,12 +780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,12 +794,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,16 +52,19 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку на 216 дн (2282,90 х 176 х 0,1%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,11 +125,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -155,6 +195,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -458,17 +509,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -482,7 +533,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -508,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43442</v>
       </c>
@@ -524,7 +575,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -538,7 +589,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43595</v>
       </c>
@@ -567,7 +618,7 @@
         <v>1160.51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -589,7 +640,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43644</v>
       </c>
@@ -618,7 +669,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -642,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43678</v>
       </c>
@@ -671,7 +722,7 @@
         <v>684.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -693,7 +744,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43717</v>
       </c>
@@ -722,7 +773,7 @@
         <v>708.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
@@ -744,35 +795,110 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2871</v>
+      </c>
+      <c r="D12" s="10">
+        <f>C12-C10</f>
+        <v>391</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="11">
+        <f>D12*E12</f>
+        <v>1755.5900000000001</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(G2:G11)</f>
-        <v>3733.0100000000007</v>
+        <f>SUM(F12,F13)</f>
+        <v>2282.9</v>
       </c>
       <c r="H12" s="6">
-        <f>SUM(H2:H11)</f>
-        <v>3733.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1527</v>
+      </c>
+      <c r="D13" s="10">
+        <f>C13-C11</f>
+        <v>217</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <f>D13*E13</f>
+        <v>527.31000000000006</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>43935</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="6">
+        <v>401.79</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6">
+        <f>SUM(G2:G14)</f>
+        <v>6417.7000000000007</v>
+      </c>
+      <c r="H15" s="6">
+        <f>SUM(H2:H14)</f>
+        <v>6016.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <f>SUM(H15,-G15)</f>
+        <v>-401.69000000000051</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -780,12 +906,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -794,12 +920,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,48 +131,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -197,14 +166,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,7 +677,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="11">
-        <f>D8*E8</f>
+        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>538.80000000000007</v>
       </c>
       <c r="G8" s="6">
@@ -738,7 +704,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="11">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>145.80000000000001</v>
       </c>
       <c r="G9" s="6"/>
@@ -762,7 +728,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="11">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>538.80000000000007</v>
       </c>
       <c r="G10" s="6">
@@ -789,7 +755,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="11">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>170.10000000000002</v>
       </c>
       <c r="G11" s="6"/>
@@ -813,7 +779,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="11">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>1755.5900000000001</v>
       </c>
       <c r="G12" s="6">
@@ -840,23 +806,31 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="11">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>527.31000000000006</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>43935</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
       <c r="G14" s="6">
         <v>401.79</v>
       </c>
@@ -865,40 +839,114 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
+      <c r="A15" s="9">
+        <v>43955</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>401.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>43976</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3533</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C16-C12</f>
+        <v>662</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:F17" si="3">D16*E16</f>
+        <v>2972.38</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16,F17)</f>
+        <v>3975.9700000000003</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3975.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1940</v>
+      </c>
+      <c r="D17" s="10">
+        <f>C17-C13</f>
+        <v>413</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="3"/>
+        <v>1003.59</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6">
-        <f>SUM(G2:G14)</f>
-        <v>6417.7000000000007</v>
-      </c>
-      <c r="H15" s="6">
-        <f>SUM(H2:H14)</f>
-        <v>6016.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
-        <f>SUM(H15,-G15)</f>
-        <v>-401.69000000000051</v>
+      <c r="G18" s="6">
+        <f>SUM(G2:G17)</f>
+        <v>10393.670000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H2:H17)</f>
+        <v>10393.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <f>SUM(H18,-G18)</f>
+        <v>9.9999999998544808E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:F14"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +94,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -135,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -166,11 +182,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,54 +838,54 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>43935</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
         <v>401.79</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>43955</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="B15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
         <v>401.79</v>
       </c>
     </row>
@@ -916,33 +941,84 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="9">
+        <v>44007</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3671</v>
+      </c>
+      <c r="D18" s="10">
+        <f>C18-C16</f>
+        <v>138</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
+        <v>619.62</v>
+      </c>
+      <c r="G18" s="6">
+        <f>SUM(F18,F19)</f>
+        <v>777.57</v>
+      </c>
+      <c r="H18" s="6">
+        <v>777.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2005</v>
+      </c>
+      <c r="D19" s="10">
+        <f>C19-C17</f>
+        <v>65</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="4"/>
+        <v>157.95000000000002</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="6">
-        <f>SUM(G2:G17)</f>
-        <v>10393.670000000002</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUM(H2:H17)</f>
-        <v>10393.77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <f>SUM(H18,-G18)</f>
+      <c r="G20" s="6">
+        <f>SUM(G2:G19)</f>
+        <v>11171.240000000002</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUM(H2:H19)</f>
+        <v>11171.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <f>SUM(H20,-G20)</f>
         <v>9.9999999998544808E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -992,33 +992,84 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="9">
+        <v>44043</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3820</v>
+      </c>
+      <c r="D20" s="10">
+        <f>C20-C18</f>
+        <v>149</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <v>701.79</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(F20,F21)</f>
+        <v>859.89</v>
+      </c>
+      <c r="H20" s="6">
+        <v>859.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2067</v>
+      </c>
+      <c r="D21" s="10">
+        <f>C21-C19</f>
+        <v>62</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="5"/>
+        <v>158.1</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="6">
-        <f>SUM(G2:G19)</f>
-        <v>11171.240000000002</v>
-      </c>
-      <c r="H20" s="6">
-        <f>SUM(H2:H19)</f>
-        <v>11171.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <f>SUM(H20,-G20)</f>
+      <c r="G22" s="6">
+        <f>SUM(G2:G21)</f>
+        <v>12031.130000000001</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUM(H2:H21)</f>
+        <v>12031.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <f>SUM(H22,-G22)</f>
         <v>9.9999999998544808E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1043,33 +1043,84 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+      <c r="A22" s="9">
+        <v>44071</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3928</v>
+      </c>
+      <c r="D22" s="10">
+        <f>C22-C20</f>
+        <v>108</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ref="F22:F23" si="6">D22*E22</f>
+        <v>508.68</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(F22,F23)</f>
+        <v>807.03</v>
+      </c>
+      <c r="H22" s="6">
+        <v>807.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2184</v>
+      </c>
+      <c r="D23" s="10">
+        <f>C23-C21</f>
+        <v>117</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="6"/>
+        <v>298.34999999999997</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="6">
-        <f>SUM(G2:G21)</f>
-        <v>12031.130000000001</v>
-      </c>
-      <c r="H22" s="6">
-        <f>SUM(H2:H21)</f>
-        <v>12031.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <f>SUM(H22,-G22)</f>
+      <c r="G24" s="6">
+        <f>SUM(G2:G23)</f>
+        <v>12838.160000000002</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUM(H2:H23)</f>
+        <v>12838.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <f>SUM(H24,-G24)</f>
         <v>9.9999999998544808E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -116,12 +116,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -182,19 +194,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,7 +517,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
@@ -524,7 +537,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -550,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43442</v>
       </c>
@@ -566,7 +579,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -580,7 +593,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43595</v>
       </c>
@@ -609,7 +622,7 @@
         <v>1160.51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -631,7 +644,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43644</v>
       </c>
@@ -660,7 +673,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -684,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43678</v>
       </c>
@@ -713,7 +726,7 @@
         <v>684.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -735,7 +748,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43717</v>
       </c>
@@ -764,7 +777,7 @@
         <v>708.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
@@ -786,7 +799,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43935</v>
       </c>
@@ -815,7 +828,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>1</v>
@@ -837,59 +850,60 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>43935</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>401.79</v>
       </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>43955</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
         <v>401.79</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>43976</v>
       </c>
@@ -951,14 +965,14 @@
         <v>3671</v>
       </c>
       <c r="D18" s="10">
-        <f>C18-C16</f>
+        <f t="shared" ref="D18:D25" si="4">C18-C16</f>
         <v>138</v>
       </c>
       <c r="E18" s="10">
         <v>4.49</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="5">D18*E18</f>
         <v>619.62</v>
       </c>
       <c r="G18" s="6">
@@ -978,14 +992,14 @@
         <v>2005</v>
       </c>
       <c r="D19" s="10">
-        <f>C19-C17</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="E19" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157.95000000000002</v>
       </c>
       <c r="G19" s="6"/>
@@ -1002,14 +1016,14 @@
         <v>3820</v>
       </c>
       <c r="D20" s="10">
-        <f>C20-C18</f>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="E20" s="10">
         <v>4.71</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
         <v>701.79</v>
       </c>
       <c r="G20" s="6">
@@ -1029,14 +1043,14 @@
         <v>2067</v>
       </c>
       <c r="D21" s="10">
-        <f>C21-C19</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E21" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158.1</v>
       </c>
       <c r="G21" s="6"/>
@@ -1053,14 +1067,14 @@
         <v>3928</v>
       </c>
       <c r="D22" s="10">
-        <f>C22-C20</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="E22" s="10">
         <v>4.71</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" ref="F22:F23" si="6">D22*E22</f>
+        <f t="shared" ref="F22:F23" si="7">D22*E22</f>
         <v>508.68</v>
       </c>
       <c r="G22" s="6">
@@ -1080,47 +1094,98 @@
         <v>2184</v>
       </c>
       <c r="D23" s="10">
-        <f>C23-C21</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="E23" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>298.34999999999997</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="9">
+        <v>44109</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4005</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F25" si="8">D24*E24</f>
+        <v>362.67</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(F24,F25)</f>
+        <v>439.17</v>
+      </c>
+      <c r="H24" s="6">
+        <v>439.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2214</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="8"/>
+        <v>76.5</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G26" s="6">
         <f>SUM(G2:G23)</f>
         <v>12838.160000000002</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H26" s="6">
         <f>SUM(H2:H23)</f>
         <v>12838.26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
-        <f>SUM(H24,-G24)</f>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
+        <f>SUM(H26,-G26)</f>
         <v>9.9999999998544808E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -517,10 +517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1159,34 +1159,85 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6" t="s">
+      <c r="A26" s="9">
+        <v>44137</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4082</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:D27" si="9">C26-C24</f>
+        <v>77</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" ref="F26:F27" si="10">D26*E26</f>
+        <v>362.67</v>
+      </c>
+      <c r="G26" s="6">
+        <f>SUM(F26,F27)</f>
+        <v>400.92</v>
+      </c>
+      <c r="H26" s="6">
+        <v>254.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2229</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="10"/>
+        <v>38.25</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="6">
-        <f>SUM(G2:G23)</f>
-        <v>12838.160000000002</v>
-      </c>
-      <c r="H26" s="6">
-        <f>SUM(H2:H23)</f>
-        <v>12838.26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6">
-        <f>SUM(H26,-G26)</f>
-        <v>9.9999999998544808E-2</v>
+      <c r="G28" s="6">
+        <f>SUM(G2:G27)</f>
+        <v>13678.250000000002</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUM(H2:H27)</f>
+        <v>13532.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <f>SUM(H28,-G28)</f>
+        <v>-145.91000000000167</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -517,10 +517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1210,33 +1210,84 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6" t="s">
+      <c r="A28" s="9">
+        <v>44169</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4186</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:D29" si="11">C28-C26</f>
+        <v>104</v>
+      </c>
+      <c r="E28" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" ref="F28:F29" si="12">D28*E28</f>
+        <v>489.84</v>
+      </c>
+      <c r="G28" s="6">
+        <f>SUM(F28,F29)</f>
+        <v>584.18999999999994</v>
+      </c>
+      <c r="H28" s="6">
+        <v>584.19000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2266</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="12"/>
+        <v>94.35</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G30" s="6">
         <f>SUM(G2:G27)</f>
         <v>13678.250000000002</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H30" s="6">
         <f>SUM(H2:H27)</f>
         <v>13532.34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <f>SUM(H28,-G28)</f>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <f>SUM(H30,-G30)</f>
         <v>-145.91000000000167</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -116,7 +116,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -208,6 +214,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,11 +1188,11 @@
         <f t="shared" ref="F26:F27" si="10">D26*E26</f>
         <v>362.67</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="18">
         <f>SUM(F26,F27)</f>
         <v>400.92</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="18">
         <v>254.91</v>
       </c>
     </row>
@@ -1261,33 +1270,84 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6" t="s">
+      <c r="A30" s="9">
+        <v>44207</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4337</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" ref="D30:D31" si="13">C30-C28</f>
+        <v>151</v>
+      </c>
+      <c r="E30" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" ref="F30:F31" si="14">D30*E30</f>
+        <v>711.21</v>
+      </c>
+      <c r="G30" s="6">
+        <f>SUM(F30,F31)</f>
+        <v>879.51</v>
+      </c>
+      <c r="H30" s="6">
+        <v>879.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2332</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="14"/>
+        <v>168.29999999999998</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G32" s="6">
         <f>SUM(G2:G27)</f>
         <v>13678.250000000002</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H32" s="6">
         <f>SUM(H2:H27)</f>
         <v>13532.34</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6">
-        <f>SUM(H30,-G30)</f>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
+        <f>SUM(H32,-G32)</f>
         <v>-145.91000000000167</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1321,33 +1321,84 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6" t="s">
+      <c r="A32" s="9">
+        <v>44285</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4397</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" ref="D32:D33" si="15">C32-C30</f>
+        <v>60</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" ref="F32:F33" si="16">D32*E32</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G32" s="6">
+        <f>SUM(F32,F33)</f>
+        <v>354</v>
+      </c>
+      <c r="H32" s="6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2360</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="16"/>
+        <v>71.399999999999991</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="6">
-        <f>SUM(G2:G27)</f>
-        <v>13678.250000000002</v>
-      </c>
-      <c r="H32" s="6">
-        <f>SUM(H2:H27)</f>
-        <v>13532.34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6">
-        <f>SUM(H32,-G32)</f>
+      <c r="G34" s="6">
+        <f>SUM(G2:G33)</f>
+        <v>15495.950000000003</v>
+      </c>
+      <c r="H34" s="6">
+        <f>SUM(H2:H33)</f>
+        <v>15350.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
+        <f>SUM(H34,-G34)</f>
         <v>-145.91000000000167</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -526,7 +526,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
@@ -1372,33 +1372,84 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6" t="s">
+      <c r="A34" s="9">
+        <v>44340</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4574</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:D35" si="17">C34-C32</f>
+        <v>177</v>
+      </c>
+      <c r="E34" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" ref="F34:F35" si="18">D34*E34</f>
+        <v>833.67</v>
+      </c>
+      <c r="G34" s="6">
+        <f>SUM(F34,F35)</f>
+        <v>1134.57</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1134.57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2478</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="17"/>
+        <v>118</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="18"/>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G36" s="6">
         <f>SUM(G2:G33)</f>
         <v>15495.950000000003</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H36" s="6">
         <f>SUM(H2:H33)</f>
         <v>15350.04</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
-        <f>SUM(H34,-G34)</f>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <f>SUM(H36,-G36)</f>
         <v>-145.91000000000167</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1423,34 +1423,85 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6" t="s">
+      <c r="A36" s="9">
+        <v>44377</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4672</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" ref="D36:D37" si="19">C36-C34</f>
+        <v>98</v>
+      </c>
+      <c r="E36" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" ref="F36:F37" si="20">D36*E36</f>
+        <v>461.58</v>
+      </c>
+      <c r="G36" s="6">
+        <f>SUM(F36,F37)</f>
+        <v>571.23</v>
+      </c>
+      <c r="H36" s="6">
+        <v>571.23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2521</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="20"/>
+        <v>109.64999999999999</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="6">
-        <f>SUM(G2:G33)</f>
-        <v>15495.950000000003</v>
-      </c>
-      <c r="H36" s="6">
-        <f>SUM(H2:H33)</f>
-        <v>15350.04</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <f>SUM(H36,-G36)</f>
-        <v>-145.91000000000167</v>
+      <c r="G38" s="6">
+        <f>SUM(G2:G37)</f>
+        <v>17201.750000000004</v>
+      </c>
+      <c r="H38" s="6">
+        <f>SUM(H2:H37)</f>
+        <v>17055.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
+        <f>SUM(H38,-G38)</f>
+        <v>-145.91000000000349</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1474,33 +1474,135 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6" t="s">
+      <c r="A38" s="9">
+        <v>44411</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4782</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" ref="D38:D39" si="21">C38-C36</f>
+        <v>110</v>
+      </c>
+      <c r="E38" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" ref="F38:F39" si="22">D38*E38</f>
+        <v>545.6</v>
+      </c>
+      <c r="G38" s="6">
+        <f>SUM(F38,F39)</f>
+        <v>666.2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>666.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2566</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="22"/>
+        <v>120.60000000000001</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>44438</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4918</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" ref="D40:D41" si="23">C40-C38</f>
+        <v>136</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" ref="F40:F41" si="24">D40*E40</f>
+        <v>674.56</v>
+      </c>
+      <c r="G40" s="6">
+        <f>SUM(F40,F41)</f>
+        <v>926.48</v>
+      </c>
+      <c r="H40" s="6">
+        <v>926.48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2660</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="23"/>
+        <v>94</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="24"/>
+        <v>251.92000000000002</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="6">
-        <f>SUM(G2:G37)</f>
-        <v>17201.750000000004</v>
-      </c>
-      <c r="H38" s="6">
-        <f>SUM(H2:H37)</f>
-        <v>17055.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <f>SUM(H38,-G38)</f>
+      <c r="G42" s="6">
+        <f>SUM(G2:G41)</f>
+        <v>18794.430000000004</v>
+      </c>
+      <c r="H42" s="6">
+        <f>SUM(H2:H41)</f>
+        <v>18648.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6">
+        <f>SUM(H42,-G42)</f>
         <v>-145.91000000000349</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -161,6 +167,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,31 +527,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44466</v>
+        <v>44501</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>4987</v>
+        <v>5130</v>
       </c>
       <c r="D2" s="10">
-        <f>C2-C4</f>
-        <v>69</v>
+        <f t="shared" ref="D2:D11" si="0">C2-C4</f>
+        <v>143</v>
       </c>
       <c r="E2" s="10">
         <v>4.96</v>
       </c>
       <c r="F2" s="11">
-        <f t="shared" ref="F2:F11" si="0">D2*E2</f>
-        <v>342.24</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>709.28</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(F2,F3)</f>
-        <v>470.88</v>
+        <v>958.52</v>
       </c>
       <c r="H2" s="6">
-        <v>470.88</v>
+        <v>958.52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,49 +560,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>2708</v>
+        <v>2801</v>
       </c>
       <c r="D3" s="10">
-        <f>C3-C5</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="E3" s="10">
         <v>2.68</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" si="0"/>
-        <v>128.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>249.24</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>44438</v>
+      <c r="A4" s="13">
+        <v>44466</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>4918</v>
+        <v>4987</v>
       </c>
       <c r="D4" s="10">
-        <f>C4-C6</f>
-        <v>136</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="E4" s="10">
         <v>4.96</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="0"/>
-        <v>674.56</v>
+        <f t="shared" ref="F4:F13" si="2">D4*E4</f>
+        <v>342.24</v>
       </c>
       <c r="G4" s="6">
         <f>SUM(F4,F5)</f>
-        <v>926.48</v>
+        <v>470.88</v>
       </c>
       <c r="H4" s="6">
-        <v>926.48</v>
+        <v>470.88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,49 +611,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>2660</v>
+        <v>2708</v>
       </c>
       <c r="D5" s="10">
-        <f>C5-C7</f>
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="E5" s="10">
         <v>2.68</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>251.92000000000002</v>
+        <f t="shared" si="2"/>
+        <v>128.64000000000001</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44411</v>
+        <v>44438</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>4782</v>
+        <v>4918</v>
       </c>
       <c r="D6" s="10">
-        <f>C6-C8</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
       <c r="E6" s="10">
         <v>4.96</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>545.6</v>
+        <f t="shared" si="2"/>
+        <v>674.56</v>
       </c>
       <c r="G6" s="6">
         <f>SUM(F6,F7)</f>
-        <v>666.2</v>
+        <v>926.48</v>
       </c>
       <c r="H6" s="6">
-        <v>666.2</v>
+        <v>926.48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -653,49 +662,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>2566</v>
+        <v>2660</v>
       </c>
       <c r="D7" s="10">
-        <f>C7-C9</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="E7" s="10">
         <v>2.68</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>120.60000000000001</v>
+        <f t="shared" si="2"/>
+        <v>251.92000000000002</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>44377</v>
+        <v>44411</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>4672</v>
+        <v>4782</v>
       </c>
       <c r="D8" s="10">
-        <f>C8-C10</f>
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="E8" s="10">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>461.58</v>
+        <f t="shared" si="2"/>
+        <v>545.6</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>571.23</v>
+        <v>666.2</v>
       </c>
       <c r="H8" s="6">
-        <v>571.23</v>
+        <v>666.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,48 +713,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>2521</v>
+        <v>2566</v>
       </c>
       <c r="D9" s="10">
-        <f>C9-C11</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E9" s="10">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>109.64999999999999</v>
+        <f t="shared" si="2"/>
+        <v>120.60000000000001</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44340</v>
+        <v>44377</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>4574</v>
+        <v>4672</v>
       </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="E10" s="10">
         <v>4.71</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>461.58</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>0</v>
+        <v>571.23</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
+        <v>571.23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,49 +764,99 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>2478</v>
+        <v>2521</v>
       </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="E11" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>109.64999999999999</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="9">
+        <v>44340</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4574</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2478</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
-        <f>SUM(G2:G11)</f>
+      <c r="G14" s="6">
+        <f>SUM(G4:G13)</f>
         <v>2634.7900000000004</v>
       </c>
-      <c r="H12" s="6">
-        <f>SUM(H2:H11)</f>
+      <c r="H14" s="6">
+        <f>SUM(H4:H13)</f>
         <v>2634.7900000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
-        <f>SUM(H12,-G12)</f>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/252ee.xlsx
+++ b/sputnik/personal/ee/252ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,31 +527,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44501</v>
+        <v>44530</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>5130</v>
+        <v>5229</v>
       </c>
       <c r="D2" s="10">
-        <f t="shared" ref="D2:D11" si="0">C2-C4</f>
-        <v>143</v>
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>99</v>
       </c>
       <c r="E2" s="10">
         <v>4.96</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>709.28</v>
+        <v>491.04</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(F2,F3)</f>
-        <v>958.52</v>
+        <v>678.6400000000001</v>
       </c>
       <c r="H2" s="6">
-        <v>958.52</v>
+        <v>678.64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,49 +560,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>2801</v>
+        <v>2871</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10">
         <v>2.68</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="1"/>
-        <v>249.24</v>
+        <v>187.60000000000002</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44466</v>
+        <v>44501</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>4987</v>
+        <v>5130</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" ref="D4:D13" si="2">C4-C6</f>
+        <v>143</v>
       </c>
       <c r="E4" s="10">
         <v>4.96</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F13" si="2">D4*E4</f>
-        <v>342.24</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>709.28</v>
       </c>
       <c r="G4" s="6">
         <f>SUM(F4,F5)</f>
-        <v>470.88</v>
+        <v>958.52</v>
       </c>
       <c r="H4" s="6">
-        <v>470.88</v>
+        <v>958.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,49 +611,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>2708</v>
+        <v>2801</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="E5" s="10">
         <v>2.68</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="2"/>
-        <v>128.64000000000001</v>
+        <f t="shared" si="3"/>
+        <v>249.24</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44438</v>
+      <c r="A6" s="13">
+        <v>44466</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>4918</v>
+        <v>4987</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>136</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="E6" s="10">
         <v>4.96</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="2"/>
-        <v>674.56</v>
+        <f t="shared" ref="F6:F15" si="4">D6*E6</f>
+        <v>342.24</v>
       </c>
       <c r="G6" s="6">
         <f>SUM(F6,F7)</f>
-        <v>926.48</v>
+        <v>470.88</v>
       </c>
       <c r="H6" s="6">
-        <v>926.48</v>
+        <v>470.88</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,49 +662,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>2660</v>
+        <v>2708</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="E7" s="10">
         <v>2.68</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="2"/>
-        <v>251.92000000000002</v>
+        <f t="shared" si="4"/>
+        <v>128.64000000000001</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>44411</v>
+        <v>44438</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>4782</v>
+        <v>4918</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
       <c r="E8" s="10">
         <v>4.96</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="2"/>
-        <v>545.6</v>
+        <f t="shared" si="4"/>
+        <v>674.56</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>666.2</v>
+        <v>926.48</v>
       </c>
       <c r="H8" s="6">
-        <v>666.2</v>
+        <v>926.48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -713,49 +713,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>2566</v>
+        <v>2660</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="E9" s="10">
         <v>2.68</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="2"/>
-        <v>120.60000000000001</v>
+        <f t="shared" si="4"/>
+        <v>251.92000000000002</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44377</v>
+        <v>44411</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>4672</v>
+        <v>4782</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="E10" s="10">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="2"/>
-        <v>461.58</v>
+        <f t="shared" si="4"/>
+        <v>545.6</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>571.23</v>
+        <v>666.2</v>
       </c>
       <c r="H10" s="6">
-        <v>571.23</v>
+        <v>666.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,48 +764,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>2521</v>
+        <v>2566</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="E11" s="10">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="2"/>
-        <v>109.64999999999999</v>
+        <f t="shared" si="4"/>
+        <v>120.60000000000001</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>44340</v>
+        <v>44377</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>4574</v>
+        <v>4672</v>
       </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>98</v>
       </c>
       <c r="E12" s="10">
         <v>4.71</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>461.58</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
+        <v>571.23</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
+        <v>571.23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,49 +815,99 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>2478</v>
+        <v>2521</v>
       </c>
       <c r="D13" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="E13" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>109.64999999999999</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="9">
+        <v>44340</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4574</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2478</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
-        <f>SUM(G4:G13)</f>
+      <c r="G16" s="6">
+        <f>SUM(G6:G15)</f>
         <v>2634.7900000000004</v>
       </c>
-      <c r="H14" s="6">
-        <f>SUM(H4:H13)</f>
+      <c r="H16" s="6">
+        <f>SUM(H6:H15)</f>
         <v>2634.7900000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <f>SUM(H14,-G14)</f>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <f>SUM(H16,-G16)</f>
         <v>0</v>
       </c>
     </row>
